--- a/Web Scrapper/Excel Files/Skill Frequency.xlsx
+++ b/Web Scrapper/Excel Files/Skill Frequency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unity3D</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C++</t>
+          <t>IT Skills</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unity</t>
+          <t>AWS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Game Development</t>
+          <t>Django</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Animation</t>
+          <t>Cloud</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>EC2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gaming</t>
+          <t>REST services</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IT Skills</t>
+          <t>Azure</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Session Management</t>
+          <t>Data Science</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Computer Engineering</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Game Design</t>
+          <t>Big Data</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Scripting</t>
+          <t>Hive</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>java</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>coding</t>
+          <t>SNS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>c#</t>
+          <t>ETL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>game developer</t>
+          <t>Apache</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mechanical engineering</t>
+          <t>Angular</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>android</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Javascript</t>
+          <t>Html5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3D Rendering</t>
+          <t>RPC</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Unity Developer</t>
+          <t>Java scripts</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mobile Game Design</t>
+          <t>JQuery</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Programming</t>
+          <t>REST</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Multiplayer Games</t>
+          <t>Machine learning</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Socket Io</t>
+          <t>Agile methodologies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Augmented Reality</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C# programming</t>
+          <t>NLP</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hyper casual Games</t>
+          <t>Rabbitmq</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vr</t>
+          <t>Celery</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>Docker</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>Data Structures</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Graphics</t>
+          <t>Python Programming</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Visual Effects</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Libgdx</t>
+          <t>Presentation</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Core Java</t>
+          <t>Mako</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Android Framework</t>
+          <t>Jinja</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Android Development</t>
+          <t>Flask</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Android SDK</t>
+          <t>Snowflake</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Android Studio</t>
+          <t>RDS</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3D animation</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>APIs</t>
+          <t>troubleshooting</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>artificial intelligence</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>physics</t>
+          <t>Git</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Game Testing</t>
+          <t>automation frameworks</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Shader Programming</t>
+          <t>Bugzilla</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>debugging</t>
+          <t>C programming</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GUI</t>
+          <t>Javascript</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Agile Methodology</t>
+          <t>SQS</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>written communication</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Unreal Engine</t>
+          <t>AJAX</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Design Patterns</t>
+          <t>XML</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C + +</t>
+          <t>Statistical programming</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Html5</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Data Structures</t>
+          <t>Data management</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cocos2D</t>
+          <t>Access management</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>devops</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Backend</t>
+          <t>Informatica</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PDF</t>
+          <t>SDK</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Vulnerability management</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Social media</t>
+          <t>Fullstack Developer</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>React</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Creative Director</t>
+          <t>DevOps</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Objective C</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Algorithm Plug in integration s</t>
+          <t>Application Management</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>IOS</t>
+          <t>GitHub</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Game Unity Developer</t>
+          <t>SQL Server</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Casino Games</t>
+          <t>Flask Framework</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Android</t>
+          <t>Agile methodology</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>UI Canvas</t>
+          <t>PostgreSQL</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Microservices</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>OOPS</t>
+          <t>Excel</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>Front End</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ROR</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>React.js</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -1465,115 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>OOP</t>
+          <t>Data Pipeline</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2D 2 C#</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Unreal</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>3D Game Development</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Unity 3D</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>GIMP</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ShaderLab</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>OpenGL</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>JSON</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Web Scrapper/Excel Files/Skill Frequency.xlsx
+++ b/Web Scrapper/Excel Files/Skill Frequency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>.Net</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IT Skills</t>
+          <t>C#</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AWS</t>
+          <t>IT Skills</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Django</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Javascript</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -516,7 +516,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>SQL Server</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cloud</t>
+          <t>Web API</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EC2</t>
+          <t>.Net Core</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REST services</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Azure</t>
+          <t>MVC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Data Science</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>HTML5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Big Data</t>
+          <t>Web Technologies</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hive</t>
+          <t>ASP.Net</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SQL</t>
+          <t>Web Api</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SNS</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ETL</t>
+          <t>troubleshooting</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Apache</t>
+          <t>Microservices</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>AWS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Angular</t>
+          <t>Entity framework</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>Web RTC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Html5</t>
+          <t>Signal R</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RPC</t>
+          <t>jQuery</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Java scripts</t>
+          <t>Visual Studio</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JQuery</t>
+          <t>Asp.Net Core</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>REST</t>
+          <t>Node.Js</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Machine learning</t>
+          <t>Sharepoint Framework</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Agile methodologies</t>
+          <t>Angular</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Jquery</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NLP</t>
+          <t>ASP NET</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rabbitmq</t>
+          <t>Angular 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Celery</t>
+          <t>Troubleshooting</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Docker</t>
+          <t>Cloud</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Data Structures</t>
+          <t>Azure</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Python Programming</t>
+          <t>Xunit</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>ADO.Net</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Presentation</t>
+          <t>Agile methodologies</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mako</t>
+          <t>RPC</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jinja</t>
+          <t>REST</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Flask</t>
+          <t>ASP NET framework</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Snowflake</t>
+          <t>CSS3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RDS</t>
+          <t>Webservices</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>Asp Net</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>troubleshooting</t>
+          <t>C# Net</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>GIT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Git</t>
+          <t>XAML</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>automation frameworks</t>
+          <t>AngularJS</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bugzilla</t>
+          <t>WebAPI</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C programming</t>
+          <t>Full Stack</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Javascript</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>MS SQL server</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SQS</t>
+          <t>WCF</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>written communication</t>
+          <t>ASP Net MVC</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AJAX</t>
+          <t>API</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>XML</t>
+          <t>React js</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Statistical programming</t>
+          <t>SQL server</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>React.js</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Data management</t>
+          <t>Troubleshooting Skills</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Access management</t>
+          <t>REST API</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>devops</t>
+          <t>ASP Net</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Informatica</t>
+          <t>IIS</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SDK</t>
+          <t>Entity framework core</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1257,219 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Vulnerability management</t>
+          <t>MS SQL</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Fullstack Developer</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>React</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DevOps</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Jenkins</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Application Management</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GitHub</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SQL Server</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Flask Framework</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Agile methodology</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>PostgreSQL</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Microservices</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Excel</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Front End</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>React.js</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Data Pipeline</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Web Scrapper/Excel Files/Skill Frequency.xlsx
+++ b/Web Scrapper/Excel Files/Skill Frequency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>.Net</t>
+          <t>IT Skills</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C#</t>
+          <t>Javascript</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IT Skills</t>
+          <t>Web Development</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>MySQL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Javascript</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SQL Server</t>
+          <t>CSS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Web API</t>
+          <t>Web Technologies</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>.Net Core</t>
+          <t>Java</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>Web development</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MVC</t>
+          <t>development</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SQL</t>
+          <t>HTML5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HTML5</t>
+          <t>PHP</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Web Technologies</t>
+          <t>NoSQL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASP.Net</t>
+          <t>Typescript</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Web Api</t>
+          <t>GIT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>JQuery</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>troubleshooting</t>
+          <t>Developement</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Microservices</t>
+          <t>Technical product configuration</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AWS</t>
+          <t>c++</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Entity framework</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Web RTC</t>
+          <t>design</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Signal R</t>
+          <t>JavaScript</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jQuery</t>
+          <t>integration PHP</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Visual Studio</t>
+          <t>Web designing</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Asp.Net Core</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Node.Js</t>
+          <t>Git</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sharepoint Framework</t>
+          <t>web development</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Angular</t>
+          <t>Word Press</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jquery</t>
+          <t>SaaS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASP NET</t>
+          <t>Wordpress</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Angular 5</t>
+          <t>Bootstrap</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Troubleshooting</t>
+          <t>HTML</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cloud</t>
+          <t>REST API</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Azure</t>
+          <t>Continuous Integration</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Xunit</t>
+          <t>ContextAPI</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ADO.Net</t>
+          <t>Unit test development</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Agile methodologies</t>
+          <t>Vuejs</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RPC</t>
+          <t>Hooks</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REST</t>
+          <t>continuous integration</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASP NET framework</t>
+          <t>Front end</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CSS3</t>
+          <t>RDBMS</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Webservices</t>
+          <t>TDD</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Asp Net</t>
+          <t>APIs</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C# Net</t>
+          <t>web services</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GIT</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>XAML</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AngularJS</t>
+          <t>BPM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WebAPI</t>
+          <t>SOA</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Full Stack</t>
+          <t>SDLC</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>Software Development</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MS SQL server</t>
+          <t>Jenkins</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>WCF</t>
+          <t>Action Script</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ASP Net MVC</t>
+          <t>Html5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>Node.Js</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>React js</t>
+          <t>React.Js</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SQL server</t>
+          <t>Node js</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>React.js</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Troubleshooting Skills</t>
+          <t>React js</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>REST API</t>
+          <t>verbal communication</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ASP Net</t>
+          <t>Database Administration</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IIS</t>
+          <t>Restful Webservices</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Entity framework core</t>
+          <t>Core PHP</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,258 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MS SQL</t>
+          <t>Angular</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Javascript Frameworks</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Web Application Development</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Digital Marketing</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Marketing Strategy</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Content Marketing</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Social Media</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Viral Marketing</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>User Interface Developement</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SASS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Front End Web Developer</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>UI Development</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vue.Js</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Symphony</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Php Frameworks</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SQL Queries</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Laravel</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Web Scrapper/Excel Files/Skill Frequency.xlsx
+++ b/Web Scrapper/Excel Files/Skill Frequency.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IT Skills</t>
+          <t>c#</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Javascript</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Web Development</t>
+          <t>android</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>com</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>development</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CSS</t>
+          <t>Game Development</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Web Technologies</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Unity3D</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Web development</t>
+          <t>maths</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HTML5</t>
+          <t>object c</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHP</t>
+          <t>Unity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NoSQL</t>
+          <t>C#</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Typescript</t>
+          <t>java</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GIT</t>
+          <t>coding</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JQuery</t>
+          <t>game developer</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Developement</t>
+          <t>gaming</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Technical product configuration</t>
+          <t>mechanical engineering</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c++</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Game Design</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>Augmented Reality</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>game development</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>integration PHP</t>
+          <t>game testing</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Web designing</t>
+          <t>Libgdx</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Core Java</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Git</t>
+          <t>Android Framework</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>web development</t>
+          <t>Android Development</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Word Press</t>
+          <t>Android SDK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SaaS</t>
+          <t>Android Studio</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wordpress</t>
+          <t>Session Management</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bootstrap</t>
+          <t>Computer Engineering</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HTML</t>
+          <t>Animation</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>REST API</t>
+          <t>Scripting</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Continuous Integration</t>
+          <t>Team Handling</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ContextAPI</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Unit test development</t>
+          <t>Team Building</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vuejs</t>
+          <t>Multiplayer Games</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hooks</t>
+          <t>Socket Io</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>continuous integration</t>
+          <t>C# programming</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Front end</t>
+          <t>Hyper casual Games</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RDBMS</t>
+          <t>Vr</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TDD</t>
+          <t>Unreal Engine</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>APIs</t>
+          <t>Virtual Reality</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>web services</t>
+          <t>Graphics</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>Coding</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>Opengl</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BPM</t>
+          <t>cocos2d</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SOA</t>
+          <t>Product quality</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SDLC</t>
+          <t>3D</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Software Development</t>
+          <t>Head Business Development</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jenkins</t>
+          <t>Quality testing</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Action Script</t>
+          <t>Debugging</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Html5</t>
+          <t>Customer Support</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Node.Js</t>
+          <t>Work From Home</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>React.Js</t>
+          <t>work under pressure</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Node js</t>
+          <t>game</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SQL</t>
+          <t>Programming</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>React js</t>
+          <t>it</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1205,310 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>verbal communication</t>
+          <t>Game testing</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Database Administration</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Restful Webservices</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Core PHP</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Angular</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Javascript Frameworks</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Web Application Development</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Digital Marketing</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Marketing Strategy</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Sales</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Content Marketing</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Social Media</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Viral Marketing</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>User Interface Developement</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>SASS</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Front End Web Developer</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>UI Development</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Vue.Js</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Algorithms</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Symphony</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Php Frameworks</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>SQL Queries</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Laravel</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
